--- a/Project-Word/Generate-Voucher/sample.xlsx
+++ b/Project-Word/Generate-Voucher/sample.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syenl\Desktop\Python-Tools\Project-Word\Generate-Voucher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B346CC-3B3C-48FC-A52D-32A410E3CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B85A67-D1AD-445E-AE16-1FD0D0D86148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -329,7 +342,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,15 +354,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,19 +395,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,436 +730,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8627F749-D326-47FA-940E-6E48DEB839B3}">
-  <dimension ref="A1:CW3"/>
+  <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="3"/>
-    <col min="33" max="33" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="3"/>
-    <col min="40" max="40" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" style="3"/>
-    <col min="44" max="44" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="3"/>
-    <col min="47" max="47" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="3"/>
-    <col min="51" max="51" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" style="3"/>
-    <col min="54" max="54" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" style="3"/>
-    <col min="58" max="58" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.140625" style="3"/>
-    <col min="61" max="61" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" style="3"/>
-    <col min="65" max="65" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" style="3"/>
-    <col min="68" max="68" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.140625" style="3"/>
-    <col min="72" max="72" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.140625" style="3"/>
-    <col min="75" max="75" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.140625" style="3"/>
-    <col min="79" max="79" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project-Word/Generate-Voucher/sample.xlsx
+++ b/Project-Word/Generate-Voucher/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syenl\Desktop\Python-Tools\Project-Word\Generate-Voucher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B85A67-D1AD-445E-AE16-1FD0D0D86148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E720E-F035-4979-9B02-D24A4E0594DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
